--- a/backtesting/gap_opening_long_straddle_aug_2024_report.xlsx
+++ b/backtesting/gap_opening_long_straddle_aug_2024_report.xlsx
@@ -1,82 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="report" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>entry</t>
-  </si>
-  <si>
-    <t>strike</t>
-  </si>
-  <si>
-    <t>exit</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>stock point</t>
-  </si>
-  <si>
-    <t>CE price</t>
-  </si>
-  <si>
-    <t>PE price</t>
-  </si>
-  <si>
-    <t>CE + PE price</t>
-  </si>
-  <si>
-    <t>CE_delta</t>
-  </si>
-  <si>
-    <t>PE_delta</t>
-  </si>
-  <si>
-    <t>Net delta</t>
-  </si>
-  <si>
-    <t>basic profit %age</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font/>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
@@ -106,7 +60,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border/>
     <border>
       <left style="medium">
@@ -224,64 +178,234 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,100 +603,885 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="16" max="16" width="16.5"/>
+    <col width="15.38" customWidth="1" style="18" min="13" max="13"/>
+    <col width="16.5" customWidth="1" style="18" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="7"/>
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="B1" s="20" t="inlineStr">
+        <is>
+          <t>entry</t>
+        </is>
+      </c>
+      <c r="C1" s="21" t="n"/>
+      <c r="D1" s="21" t="n"/>
+      <c r="E1" s="21" t="n"/>
+      <c r="F1" s="22" t="n"/>
+      <c r="G1" s="23" t="inlineStr">
+        <is>
+          <t>strike</t>
+        </is>
+      </c>
+      <c r="H1" s="24" t="inlineStr">
+        <is>
+          <t>exit</t>
+        </is>
+      </c>
+      <c r="I1" s="21" t="n"/>
+      <c r="J1" s="21" t="n"/>
+      <c r="K1" s="21" t="n"/>
+      <c r="L1" s="25" t="n"/>
+      <c r="M1" s="26" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="N1" s="21" t="n"/>
+      <c r="O1" s="21" t="n"/>
+      <c r="P1" s="21" t="n"/>
+      <c r="Q1" s="25" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>13</v>
+      <c r="A2" s="27" t="n"/>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>stock point</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr">
+        <is>
+          <t>CE price</t>
+        </is>
+      </c>
+      <c r="E2" s="11" t="inlineStr">
+        <is>
+          <t>PE price</t>
+        </is>
+      </c>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>CE + PE price</t>
+        </is>
+      </c>
+      <c r="G2" s="27" t="n"/>
+      <c r="H2" s="10" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="I2" s="11" t="inlineStr">
+        <is>
+          <t>stock point</t>
+        </is>
+      </c>
+      <c r="J2" s="11" t="inlineStr">
+        <is>
+          <t>CE price</t>
+        </is>
+      </c>
+      <c r="K2" s="11" t="inlineStr">
+        <is>
+          <t>PE price</t>
+        </is>
+      </c>
+      <c r="L2" s="13" t="inlineStr">
+        <is>
+          <t>CE + PE price</t>
+        </is>
+      </c>
+      <c r="M2" s="14" t="inlineStr">
+        <is>
+          <t>stock point delta</t>
+        </is>
+      </c>
+      <c r="N2" s="15" t="inlineStr">
+        <is>
+          <t>CE_delta</t>
+        </is>
+      </c>
+      <c r="O2" s="16" t="inlineStr">
+        <is>
+          <t>PE_delta</t>
+        </is>
+      </c>
+      <c r="P2" s="16" t="inlineStr">
+        <is>
+          <t>Net delta</t>
+        </is>
+      </c>
+      <c r="Q2" s="17" t="inlineStr">
+        <is>
+          <t>basic profit %age</t>
+        </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>51606.45</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>899</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1631</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>51600</v>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>51172.25</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>675.5</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>973.55</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1649.05</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>-434.1999999999971</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>-223.5</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>241.55</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>18.04999999999995</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1.106683016554258</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>50056</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1148.85</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>975.05</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2123.9</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>50436.9</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1226.1</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>893.95</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>2120.05</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>380.9000000000015</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>77.25</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>-81.09999999999991</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>-3.849999999999909</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>-0.1812703046282739</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>49770.2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1127.15</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>868.3</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1995.45</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>49700</v>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>50286.2</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>622.95</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1822.95</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>516</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>72.84999999999991</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>-245.3499999999999</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>-172.5</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>-8.644666616552657</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>50226.45</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>935.5</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>725</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1660.5</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>50200</v>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>50051.9</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>885.75</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>799</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1684.75</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>-174.5499999999956</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>-49.75</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>1.460403492923818</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>50109.45</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>874.9</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>771.2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1646.1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>50100</v>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>50612.1</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1042.95</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>555</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1597.95</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>502.6500000000015</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>168.0500000000001</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>-216.2</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>-48.14999999999998</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>-2.925095680699835</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>50578.55</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>812</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>556</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1368</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>50500</v>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>50395.35</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>760</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>599.8</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1359.8</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>-183.2000000000044</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>-52</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>43.79999999999995</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>-8.200000000000045</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>-0.599415204678366</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>49853.7</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>834.3</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>560.85</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1395.15</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>49800</v>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>49887.15</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>834.3</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>561.05</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1395.35</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>33.45000000000437</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.1999999999999318</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0.1999999999999318</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.01433537612442617</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>50418.85</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>525</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>430</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>955</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>50400</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>50417.25</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>525.05</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>429.85</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>954.9</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>-1.599999999998545</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.04999999999995453</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>-0.1499999999999773</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>-0.01047120418848406</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>50719.1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>516</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>344.55</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>860.55</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>50700</v>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>50666.65</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>470.15</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>377.75</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>847.9</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>-52.44999999999709</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>-45.85000000000002</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>33.19999999999999</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>-12.65000000000003</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>-1.469990122596018</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>50737.7</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>447.2</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>759.2</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>50700</v>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>50894.8</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>789</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>157.1000000000058</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>29.80000000000001</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>29.80000000000001</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>3.925184404636461</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>50952.65</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>410</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>280.55</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>690.55</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>50900</v>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>51040.05</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>450.05</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>760.05</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>87.40000000000146</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>40.05000000000001</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>29.44999999999999</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>10.06444138729998</v>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>